--- a/distance_graph/bee_position1.xlsx
+++ b/distance_graph/bee_position1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nahin\OneDrive\Desktop\Thesis\Labeled_data\distance_graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA12231-7947-4939-B8CC-266542EA621B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD35628-65D3-4A1A-8C31-6DD642CC877B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3115990-5D9B-42B3-9D83-1C88C827880C}"/>
   </bookViews>
@@ -17,10 +17,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$2:$A$349</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$2:$B$349</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$A$2:$A$349</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$B$2:$B$349</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Sheet2!$A$1:$E$349</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -366,6 +362,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -453,7 +454,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32050028168180811"/>
+          <c:y val="0.14393518518518519"/>
+          <c:w val="0.37241662918392576"/>
+          <c:h val="0.84283974919801696"/>
+        </c:manualLayout>
+      </c:layout>
       <c:radarChart>
         <c:radarStyle val="filled"/>
         <c:varyColors val="0"/>
@@ -465,7 +476,9 @@
               <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -2596,7 +2609,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2616,39 +2629,6 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="526305711"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -3285,15 +3265,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>351</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>365</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
